--- a/2014/Doc/詳細設計書/勤務表画面(ITプレゼン時）.xlsx
+++ b/2014/Doc/詳細設計書/勤務表画面(ITプレゼン時）.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="修正履歴" sheetId="2" r:id="rId3"/>
+    <sheet name="画面全体" sheetId="1" r:id="rId1"/>
+    <sheet name="ヘッダ項目-1" sheetId="4" r:id="rId2"/>
+    <sheet name="ヘッダ項目-2" sheetId="5" r:id="rId3"/>
+    <sheet name="勤怠入力項目-1" sheetId="6" r:id="rId4"/>
+    <sheet name="勤怠入力項目-2" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="修正履歴" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">修正履歴!$A$1:$J$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">修正履歴!$A$1:$J$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -111,19 +115,1126 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面イメージ</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>残業調整</t>
     <rPh sb="0" eb="2">
       <t>ザンギョウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面全体</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務表閲覧</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠情報登録</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務表出力</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人選択</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁数</t>
+    <rPh sb="0" eb="2">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字（半角)</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID入力</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務表画面を閲覧モードで表示。
+※現在は未実装</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠情報を勤怠画面に入力後、
+当該ボタンを押下することでDBに入力情報を登録。</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番2押下後、
+当該ボタン押下でローカル環境に勤務表（excel）を出力</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号を入力。
+DB未登録の値についてはエラーチェック有。</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ミトウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番4押下後、
+当該ボタン押下でに項番4社員番号該当社員情報を表示。</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号を表示</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属する課を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名を表示</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・項番4、項番5機能について</t>
+    <rPh sb="1" eb="3">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダ項目-1</t>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダ項目-2</t>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②個人選択ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③エラー表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーチェックについて-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーチェックについて-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①DBに存在する社員番号を入力</t>
+    <rPh sb="4" eb="6">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②個人選択ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③社員情報表示</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①実績退社時間入力</t>
+    <rPh sb="1" eb="3">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①実績出社時間入力</t>
+    <rPh sb="1" eb="3">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュッシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーチェックについて-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①休憩時間入力</t>
+    <rPh sb="1" eb="3">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠入力項目-1</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時短勤務</t>
+    <rPh sb="0" eb="2">
+      <t>ジタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時短勤務の設定。　※現在は未実装。</t>
+    <rPh sb="0" eb="2">
+      <t>ジタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・残業調整について</t>
+    <rPh sb="1" eb="3">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業調整の入力可否を選択。
+初期値は×</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②〇を選択</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①残業調整を選択（初期値は×）</t>
+    <rPh sb="1" eb="3">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業調整は活性（入力可）</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業調整は非活性（入力不可）</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カッセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠入力項目-2</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休暇</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休出/振代休</t>
+    <rPh sb="0" eb="2">
+      <t>キュウシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダイキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通院/電遅</t>
+    <rPh sb="0" eb="2">
+      <t>ツウイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A/B変</t>
+    <rPh sb="3" eb="4">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振替日</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本時間・出社</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本時間・退社</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績勤務時間・出社</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績勤務時間・退社</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績勤務時間・休憩</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字（半角全角）</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休暇の種類を選択</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休出/振休代休を選択</t>
+    <rPh sb="0" eb="2">
+      <t>キュウシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フリキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダイキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通院/電車遅延を選択</t>
+    <rPh sb="0" eb="2">
+      <t>ツウイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A変/B変を選択</t>
+    <rPh sb="1" eb="2">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績勤務時間・出社を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュッシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績勤務時間・退社を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績勤務時間・休憩を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振替日を選択　振休選択時に入力可能</t>
+    <rPh sb="0" eb="3">
+      <t>フリカエヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フリキュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本勤務時間・出社を入力　DBから取得した時間を初期表示</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュッシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本勤務時間・退社を入力　DBから取得した時間を初期表示</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業調整時間を入力　残業調整を選択した際に入力可能</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -226,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -246,11 +1357,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -281,8 +1437,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>370228</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>170571</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -444,44 +1600,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>370228</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>142043</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="21431250"/>
-          <a:ext cx="9971428" cy="6657143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -499,7 +1617,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -554,7 +1672,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -592,7 +1710,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -647,7 +1765,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -681,116 +1799,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10205357" y="1238250"/>
-          <a:ext cx="4577443" cy="793296"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10205357" y="2476500"/>
-          <a:ext cx="2517321" cy="1323975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -799,15 +1807,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29634</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -831,7 +1839,828 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="514350" y="5257800"/>
+          <a:ext cx="4622800" cy="763059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139699</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="628650" y="7043209"/>
+          <a:ext cx="2539999" cy="1271058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="304800" y="1019175"/>
+          <a:ext cx="4638675" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート : 結合子 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="819150"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート : 結合子 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="828675"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート : 結合子 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="819150"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート : 結合子 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="790575"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート : 結合子 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="1238250"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543301" y="5391150"/>
+          <a:ext cx="1466850" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フローチャート : 結合子 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="7353300"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート : 結合子 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="7686675"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート : 結合子 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="7962900"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>86784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="6343650"/>
+          <a:ext cx="4622800" cy="763059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="6724650"/>
+          <a:ext cx="638174" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="676275" y="676275"/>
           <a:ext cx="8753475" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -853,20 +2682,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>75762</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161712</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142662</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -879,7 +2708,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1028700"/>
+          <a:off x="685800" y="3238500"/>
           <a:ext cx="3504762" cy="1704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -892,19 +2721,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -924,7 +2753,178 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="3086100"/>
+          <a:off x="628650" y="1885950"/>
+          <a:ext cx="4638675" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="1409700"/>
+          <a:ext cx="504825" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="2390776"/>
+          <a:ext cx="638175" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="704850" y="5695950"/>
           <a:ext cx="9363075" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -947,32 +2947,32 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>75762</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161712</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>18612</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="8" name="図 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3600450"/>
+          <a:off x="628650" y="7486650"/>
           <a:ext cx="3504762" cy="1704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -984,26 +2984,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="9" name="図 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1017,7 +3017,178 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="5486400"/>
+          <a:off x="685800" y="6343650"/>
+          <a:ext cx="4638675" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="6677026"/>
+          <a:ext cx="638175" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="5734050"/>
+          <a:ext cx="504825" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="9782175"/>
           <a:ext cx="9344025" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1040,15 +3211,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>75762</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161712</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47187</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>171237</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1058,14 +3229,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6000750"/>
+          <a:off x="657225" y="11496675"/>
           <a:ext cx="3504762" cy="1704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1075,6 +3246,1604 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="9829800"/>
+          <a:ext cx="504825" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="10458450"/>
+          <a:ext cx="4638675" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="10791826"/>
+          <a:ext cx="638175" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="676275" y="3590925"/>
+          <a:ext cx="9382125" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="857250"/>
+          <a:ext cx="3133725" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート : 結合子 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="1209675"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート : 結合子 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="1571625"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="3590925"/>
+          <a:ext cx="1066800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="6629400"/>
+          <a:ext cx="9620250" cy="3438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439275" y="4981574"/>
+          <a:ext cx="628650" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9505950" y="8353425"/>
+          <a:ext cx="609600" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="7219950"/>
+          <a:ext cx="1066800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="857250"/>
+          <a:ext cx="9401175" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート : 結合子 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="1104900"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート : 結合子 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="1114425"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート : 結合子 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="733425"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート : 結合子 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="742950"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート : 結合子 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="733425"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート : 結合子 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="733425"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート : 結合子 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="904875"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート : 結合子 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="809625"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート : 結合子 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077074" y="590550"/>
+          <a:ext cx="495301" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フローチャート : 結合子 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="742950"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート : 結合子 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210549" y="561975"/>
+          <a:ext cx="495301" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート : 結合子 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8791574" y="561975"/>
+          <a:ext cx="495301" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="フローチャート : 結合子 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9420224" y="495300"/>
+          <a:ext cx="495301" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>14</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート : 結合子 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639049" y="561975"/>
+          <a:ext cx="495301" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1096,7 +4865,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1151,7 +4920,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1189,7 +4958,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1231,7 +5000,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1266,7 +5035,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1475,40 +5244,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1519,10 +5293,994 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18">
+        <v>1</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18">
+        <v>2</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18">
+        <v>3</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="18">
+        <v>4</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="18">
+        <v>5</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="18">
+        <v>5</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="18">
+        <v>1</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="18">
+        <v>2</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="18">
+        <v>3</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18">
+        <v>1</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="18">
+        <v>2</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G15:J15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="18">
+        <v>1</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="18">
+        <v>3</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="18">
+        <v>4</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="18">
+        <v>6</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="18">
+        <v>7</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="18">
+        <v>8</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="18">
+        <v>9</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="18">
+        <v>10</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="18">
+        <v>11</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="18">
+        <v>12</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="18">
+        <v>13</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="18">
+        <v>14</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G14:J14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1533,7 +6291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -1572,9 +6330,9 @@
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="6"/>
       <c r="J4" s="4" t="s">
         <v>6</v>
@@ -1595,9 +6353,9 @@
       <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="8"/>
       <c r="J5" s="1"/>
     </row>
@@ -1610,9 +6368,9 @@
       <c r="C6" s="8"/>
       <c r="D6" s="2"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="8"/>
       <c r="J6" s="1"/>
     </row>
@@ -1625,9 +6383,9 @@
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="8"/>
       <c r="J7" s="1"/>
     </row>
@@ -1640,9 +6398,9 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
     </row>
@@ -1655,9 +6413,9 @@
       <c r="C9" s="8"/>
       <c r="D9" s="2"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
     </row>
@@ -1670,9 +6428,9 @@
       <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
     </row>
@@ -1685,9 +6443,9 @@
       <c r="C11" s="8"/>
       <c r="D11" s="2"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
     </row>
@@ -1700,9 +6458,9 @@
       <c r="C12" s="8"/>
       <c r="D12" s="2"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
     </row>
@@ -1715,9 +6473,9 @@
       <c r="C13" s="8"/>
       <c r="D13" s="2"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
     </row>
@@ -1730,9 +6488,9 @@
       <c r="C14" s="8"/>
       <c r="D14" s="2"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
     </row>
@@ -1745,9 +6503,9 @@
       <c r="C15" s="8"/>
       <c r="D15" s="2"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
     </row>
@@ -1760,9 +6518,9 @@
       <c r="C16" s="8"/>
       <c r="D16" s="2"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
     </row>
@@ -1775,44 +6533,44 @@
       <c r="C17" s="8"/>
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="8"/>
       <c r="J17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:I8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2014/Doc/詳細設計書/勤務表画面(ITプレゼン時）.xlsx
+++ b/2014/Doc/詳細設計書/勤務表画面(ITプレゼン時）.xlsx
@@ -12,18 +12,17 @@
     <sheet name="ヘッダ項目-2" sheetId="5" r:id="rId3"/>
     <sheet name="勤怠入力項目-1" sheetId="6" r:id="rId4"/>
     <sheet name="勤怠入力項目-2" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet name="修正履歴" sheetId="2" r:id="rId7"/>
+    <sheet name="修正履歴" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">修正履歴!$A$1:$J$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">修正履歴!$A$1:$I$37</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -88,262 +87,297 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正番号</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池田</t>
+    <rPh sb="0" eb="2">
+      <t>イケダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業調整</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面全体</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務表閲覧</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠情報登録</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務表出力</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人選択</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁数</t>
+    <rPh sb="0" eb="2">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字（半角)</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID入力</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務表画面を閲覧モードで表示。
+※現在は未実装</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠情報を勤怠画面に入力後、
+当該ボタンを押下することでDBに入力情報を登録。</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番2押下後、
+当該ボタン押下でローカル環境に勤務表（excel）を出力</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号を入力。
+DB未登録の値についてはエラーチェック有。</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規作成</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>池田</t>
-    <rPh sb="0" eb="2">
-      <t>イケダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残業調整</t>
-    <rPh sb="0" eb="2">
-      <t>ザンギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面全体</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゼンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能説明</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤務表閲覧</t>
-    <rPh sb="0" eb="2">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠情報登録</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤務表出力</t>
-    <rPh sb="0" eb="2">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>個人選択</t>
-    <rPh sb="0" eb="2">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>桁数</t>
-    <rPh sb="0" eb="2">
-      <t>ケタスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力値</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="11" eb="14">
+      <t>ミトウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数字（半角)</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>種類</t>
-    <rPh sb="0" eb="2">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員ID入力</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤務表画面を閲覧モードで表示。
-※現在は未実装</t>
-    <rPh sb="0" eb="2">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ミジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠情報を勤怠画面に入力後、
-当該ボタンを押下することでDBに入力情報を登録。</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ニュウリョクゴ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項番2押下後、
-当該ボタン押下でローカル環境に勤務表（excel）を出力</t>
+    <rPh sb="28" eb="29">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番4押下後、
+当該ボタン押下でに項番4社員番号該当社員情報を表示。</t>
     <rPh sb="0" eb="2">
       <t>コウバン</t>
     </rPh>
@@ -359,89 +393,37 @@
     <rPh sb="13" eb="15">
       <t>オウカ</t>
     </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウバン</t>
+    </rPh>
     <rPh sb="20" eb="22">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>キンムヒョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員番号を入力。
-DB未登録の値についてはエラーチェック有。</t>
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ミトウロク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項番4押下後、
-当該ボタン押下でに項番4社員番号該当社員情報を表示。</t>
-    <rPh sb="0" eb="2">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員番号</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -456,10 +438,6 @@
     <rPh sb="0" eb="2">
       <t>シメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラベル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -590,19 +568,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>③社員情報表示</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①実績退社時間入力</t>
     <rPh sb="1" eb="3">
       <t>ジッセキ</t>
@@ -712,29 +677,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残業調整の入力可否を選択。
-初期値は×</t>
-    <rPh sb="0" eb="2">
-      <t>ザンギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カヒ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ショキチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>②〇を選択</t>
     <rPh sb="3" eb="5">
       <t>センタク</t>
@@ -1235,6 +1177,303 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- (td)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zangyo_chousei</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業調整の入力可否を選択。
+初期値は×。×(No)、〇(YES）。</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>btnView</t>
+  </si>
+  <si>
+    <t>btnRegist</t>
+  </si>
+  <si>
+    <t>btnOutput</t>
+  </si>
+  <si>
+    <t>txtPersonal_id</t>
+  </si>
+  <si>
+    <t>btnPersonal</t>
+  </si>
+  <si>
+    <t>lblPersonal_id</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※id末尾に日付に対応した数字を付与</t>
+    <rPh sb="3" eb="5">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_KyusyutuFuridai_</t>
+  </si>
+  <si>
+    <t>id_Kyuka_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例）1日→id_Kyuka_1</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_Shift_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_Hendou_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_furikae_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_syousai_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_kihonS_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_kihonE_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_jissekiS_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_jissekiE_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_jissekiR_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_zangyou_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←仕様未確定</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミカクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休暇</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番３</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・リストボックスの値</t>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番4</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代休・振休選択時</t>
+    <rPh sb="0" eb="2">
+      <t>ダイキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フリキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振替日が入力可能に</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番5</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番6</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③勤務表表示、社員情報表示</t>
+    <rPh sb="1" eb="3">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務表</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務表の月数を表示。月数 +勤務表。　
+例）6月勤務表</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツキスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツキスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1337,7 +1576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1345,6 +1584,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1356,24 +1622,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1402,12 +1650,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1507,99 +1759,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285457</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>28164</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="13887450"/>
-          <a:ext cx="2342857" cy="3285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="17487900"/>
-          <a:ext cx="9353550" cy="1695450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1617,7 +1776,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1672,7 +1831,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1685,116 +1844,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2041071" y="19988893"/>
-          <a:ext cx="3388179" cy="1558018"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6803571" y="20165786"/>
-          <a:ext cx="4082143" cy="840921"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2274,13 +2323,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2289,8 +2338,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3543301" y="5391150"/>
-          <a:ext cx="1466850" cy="200025"/>
+          <a:off x="3543301" y="5381626"/>
+          <a:ext cx="1457324" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2329,16 +2378,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2347,7 +2396,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1543050" y="7353300"/>
+          <a:off x="371475" y="7629525"/>
           <a:ext cx="304800" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -2390,15 +2439,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2407,7 +2456,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1438275" y="7686675"/>
+          <a:off x="1495425" y="7972425"/>
           <a:ext cx="304800" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -2450,15 +2499,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2467,7 +2516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1466850" y="7962900"/>
+          <a:off x="1485900" y="8220075"/>
           <a:ext cx="304800" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -2615,6 +2664,66 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート : 結合子 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="8477250"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3431,7 +3540,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -3718,8 +3827,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -3768,15 +3877,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3785,8 +3894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9439275" y="4981574"/>
-          <a:ext cx="628650" cy="1114425"/>
+          <a:off x="9458325" y="4981575"/>
+          <a:ext cx="476250" cy="1076326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3826,15 +3935,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3843,7 +3952,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9505950" y="8353425"/>
+          <a:off x="9515475" y="8382000"/>
           <a:ext cx="609600" cy="1647825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3952,8 +4061,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -4302,15 +4411,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4319,7 +4428,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4248150" y="733425"/>
+          <a:off x="4429125" y="704850"/>
           <a:ext cx="304800" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -4361,16 +4470,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4379,7 +4488,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4857750" y="904875"/>
+          <a:off x="4953000" y="1009650"/>
           <a:ext cx="304800" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -4421,16 +4530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4439,7 +4548,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6438900" y="809625"/>
+          <a:off x="6486525" y="914400"/>
           <a:ext cx="304800" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -4481,14 +4590,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -4499,7 +4608,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077074" y="590550"/>
+          <a:off x="7019924" y="590550"/>
           <a:ext cx="495301" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -4602,13 +4711,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -4619,7 +4728,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8210549" y="561975"/>
+          <a:off x="8277224" y="561975"/>
           <a:ext cx="495301" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -4662,15 +4771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4679,7 +4788,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8791574" y="561975"/>
+          <a:off x="8963024" y="609600"/>
           <a:ext cx="495301" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -4722,15 +4831,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4739,7 +4848,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9420224" y="495300"/>
+          <a:off x="9639299" y="447675"/>
           <a:ext cx="495301" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -4781,16 +4890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4799,7 +4908,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639049" y="561975"/>
+          <a:off x="7696199" y="581025"/>
           <a:ext cx="495301" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -4839,33 +4948,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>291807</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>168922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5838825"/>
+          <a:ext cx="2349207" cy="3245497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532342</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPr id="23" name="図 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4879,8 +5021,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="85725" y="10372725"/>
-          <a:ext cx="8734425" cy="2000250"/>
+          <a:off x="638175" y="9610725"/>
+          <a:ext cx="9381067" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4901,26 +5043,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>675217</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>125941</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPr id="24" name="図 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4934,8 +5076,173 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="95250" y="8020050"/>
-          <a:ext cx="8153400" cy="2085975"/>
+          <a:off x="685800" y="11658600"/>
+          <a:ext cx="3418417" cy="1497541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>58208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="13649325"/>
+          <a:ext cx="4127500" cy="810683"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="15087600"/>
+          <a:ext cx="3514725" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="16802100"/>
+          <a:ext cx="3495675" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5253,28 +5560,28 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="6"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5293,7 +5600,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -5302,310 +5609,367 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="6" max="7" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E16" s="12">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18">
-        <v>1</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18">
-        <v>2</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="G16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18">
-        <v>3</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18">
-        <v>4</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="18">
-        <v>5</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18">
-        <v>5</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="6"/>
+      <c r="B44" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="19"/>
       <c r="D44" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="18">
+        <v>18</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="12">
         <v>1</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="12">
+        <v>2</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="12">
+        <v>3</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="24"/>
+    </row>
+    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="12">
+        <v>4</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="18" t="s">
+      <c r="C48" s="16"/>
+      <c r="D48" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="18">
-        <v>2</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="21"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="18">
-        <v>3</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="24"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5625,83 +5989,83 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="6"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="8"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="21"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5719,145 +6083,157 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6"/>
+      <c r="B14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="19"/>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18">
+        <v>18</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
         <v>1</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="18">
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
         <v>2</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
+      <c r="B16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="H15:K15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5867,436 +6243,533 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6"/>
+      <c r="B13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19"/>
       <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>4</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
+        <v>6</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
+        <v>7</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="18">
-        <v>1</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="18">
-        <v>2</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="18">
-        <v>3</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="G20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="6"/>
+      <c r="L20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
+        <v>8</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="18">
-        <v>4</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="18">
-        <v>5</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="18">
-        <v>6</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="18">
-        <v>7</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="18">
-        <v>8</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1">
         <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="18">
+        <v>75</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="12">
         <v>9</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="12"/>
+      <c r="B22" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1">
         <v>4</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>21</v>
+      <c r="F22" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="18">
+        <v>110</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="12">
         <v>10</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="12"/>
+      <c r="B23" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>21</v>
+      <c r="F23" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="18">
+        <v>111</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="12">
         <v>11</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="12"/>
+      <c r="B24" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="18" t="s">
-        <v>21</v>
+      <c r="F24" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="18">
+        <v>112</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="12">
         <v>12</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="12"/>
+      <c r="B25" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>21</v>
+      <c r="F25" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="18">
+        <v>113</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="12">
         <v>13</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="12"/>
+      <c r="B26" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1">
         <v>4</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>21</v>
+      <c r="F26" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="18">
+        <v>114</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="12">
         <v>14</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="12"/>
+      <c r="B27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>21</v>
+      <c r="F27" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6304,273 +6777,257 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A17" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8"/>
+      <c r="B5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="21"/>
       <c r="D5" s="2">
         <v>41845</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E6" s="20"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E7" s="20"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E8" s="20"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E9" s="20"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E10" s="20"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E11" s="20"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E12" s="20"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E13" s="20"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E14" s="20"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E15" s="20"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E16" s="20"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:I14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
